--- a/2019-01 ECSE223 Project - Iteration 5 - Statement of Work Distribution (Version I).xlsx
+++ b/2019-01 ECSE223 Project - Iteration 5 - Statement of Work Distribution (Version I).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1058086B-2ECA-4DE4-8C42-4AB62D9222A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{1058086B-2ECA-4DE4-8C42-4AB62D9222A9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{44D22BA9-906D-4849-B1D4-D93D323DBBE7}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="10536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Distribtion" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Group Number:</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>Actually implemented by</t>
-  </si>
-  <si>
-    <t>YES / NO</t>
   </si>
   <si>
     <t>If not, explain why:</t>
@@ -77,6 +74,24 @@
   </si>
   <si>
     <t>Mathieu Bissonette, Imane Chafi, Sofia Dieguez, Kelly Ma, Georges Mourant</t>
+  </si>
+  <si>
+    <t>Georges Mourant</t>
+  </si>
+  <si>
+    <t>Sofia Dieguez</t>
+  </si>
+  <si>
+    <t>Mathieu Bissonette</t>
+  </si>
+  <si>
+    <t>Imane Chafi</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>YES</t>
   </si>
 </sst>
 </file>
@@ -279,7 +294,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -601,18 +616,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="4" width="30.68359375" customWidth="1"/>
+    <col min="3" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,117 +637,141 @@
       <c r="C1" s="8"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="12" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="11"/>
       <c r="D16" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" ht="150.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="13"/>
